--- a/analise_dados.xlsx
+++ b/analise_dados.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VJRC1\Desktop\AEC\trabPratico\TP2_AEC_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vjcastro\Desktop\ml-absenteeism-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F32C2-4D35-418E-9268-ED55E5DE95B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366279B2-316C-401C-A1DB-C3B852E81429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name=" CV Train" sheetId="1" r:id="rId1"/>
+    <sheet name=" Train-Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Balanceamento" sheetId="3" r:id="rId3"/>
+    <sheet name="Otimização" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="34">
   <si>
     <t>accuracy</t>
   </si>
@@ -61,6 +64,72 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>yes/yes</t>
+  </si>
+  <si>
+    <t>distribuição</t>
+  </si>
+  <si>
+    <t>79-21</t>
+  </si>
+  <si>
+    <t>50-50</t>
+  </si>
+  <si>
+    <t>auroc</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>accuracy (com id)</t>
+  </si>
+  <si>
+    <t>std (com id)</t>
+  </si>
+  <si>
+    <t>auroc (com id)</t>
+  </si>
+  <si>
+    <t>Melhores resultados para cada algoritmo</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>dist_train</t>
+  </si>
+  <si>
+    <t>Log Reg</t>
+  </si>
+  <si>
+    <t>susbset</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>avg_error</t>
+  </si>
+  <si>
+    <t>0.1917 deg</t>
+  </si>
+  <si>
+    <t>up up</t>
+  </si>
+  <si>
+    <t>0.1958 deg</t>
+  </si>
+  <si>
+    <t>up</t>
   </si>
 </sst>
 </file>
@@ -76,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -98,15 +173,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +357,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229148</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C936D3A-4078-4C5A-ABF4-833CC0F94180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6325148" cy="3246401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>556648</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3E02FF-CA6E-418E-BF3C-B91ADB310DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6446520" y="0"/>
+          <a:ext cx="4473328" cy="3368332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23227</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E758A7-8AFD-478C-8592-006103FE843C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11033760" y="0"/>
+          <a:ext cx="4229467" cy="3322608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,279 +759,1477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.51</v>
       </c>
-      <c r="F2" s="1">
+      <c r="J2" s="4">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.64</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
         <v>0.79</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.74</v>
       </c>
-      <c r="F5" s="3">
+      <c r="J5" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.47</v>
       </c>
-      <c r="F7" s="1">
+      <c r="J7" s="4">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="K7" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.48</v>
       </c>
-      <c r="F8" s="1">
+      <c r="J8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="K8" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.96</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="K9" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F10" s="1">
+      <c r="J10" s="4">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K10" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="J17" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="I18" s="4">
         <v>0.71</v>
       </c>
-      <c r="F13" s="1">
+      <c r="J18" s="4">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="I19" s="4">
         <v>0.89</v>
       </c>
-      <c r="F14" s="3">
+      <c r="J19" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K19" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I20" s="4">
         <v>0.84</v>
       </c>
-      <c r="F15" s="1">
+      <c r="J20" s="4">
         <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC12040B-85DD-4A4C-A6CE-8B546D07CB5D}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.26</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.26</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.26</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.27</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.26</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33241D77-A749-401C-AC4D-003C3377D15A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93809F8F-5E16-4878-9114-8F0723CCA899}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>38</v>
+      </c>
+      <c r="D5" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>82</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>83</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>36</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>83</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.96</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>